--- a/outputs/FF3_results_244604.xlsx
+++ b/outputs/FF3_results_244604.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0108338348047783</v>
+        <v>0.01083385568093849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4660794182123972</v>
+        <v>0.4660793913960823</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3645235338525183</v>
+        <v>0.3645249723713545</v>
       </c>
       <c r="E2" t="n">
-        <v>1.547537735782079</v>
+        <v>1.547536683136312</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4950058998865677</v>
+        <v>0.4950055372386702</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.00125725564615534</v>
+        <v>-0.001257254318401223</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4654523912313209</v>
+        <v>0.465452429950867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004444845271456502</v>
+        <v>0.004445066468470319</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2855126431024652</v>
+        <v>-0.2855130791556409</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1925716207585721</v>
+        <v>0.1925716841392593</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01309062313089886</v>
+        <v>0.01309062713748306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9321270088269723</v>
+        <v>0.9321268392960557</v>
       </c>
       <c r="D4" t="n">
-        <v>1.134134975918395</v>
+        <v>1.134135840751338</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5083459862557954</v>
+        <v>-0.5083458071890821</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3325658991967765</v>
+        <v>0.3325659107921967</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004761233634210954</v>
+        <v>-0.004761230066489345</v>
       </c>
       <c r="C5" t="n">
-        <v>1.297993679724043</v>
+        <v>1.297993866999445</v>
       </c>
       <c r="D5" t="n">
-        <v>1.69285937514431</v>
+        <v>1.692859705742159</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2465480179257991</v>
+        <v>-0.2465483240955721</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6133771645943509</v>
+        <v>0.6133772486373996</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01066158111565663</v>
+        <v>0.01066157472784741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4374874802538919</v>
+        <v>0.437487306670781</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.001421186120777103</v>
+        <v>-0.0014206468579372</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03995933645591968</v>
+        <v>-0.03995798745729995</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1752184579119691</v>
+        <v>0.1752184043218875</v>
       </c>
     </row>
   </sheetData>
